--- a/RTL/tangnano20k_vdp_cartridge_rev2_step1/src/th9958/doc/gamma.xlsx
+++ b/RTL/tangnano20k_vdp_cartridge_rev2_step1/src/th9958/doc/gamma.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>γ</t>
     <phoneticPr fontId="1"/>
@@ -39,6 +39,10 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>γ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -63,7 +67,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -76,8 +80,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -250,13 +272,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -266,9 +327,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -291,6 +349,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -299,6 +375,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF66CCFF"/>
+      <color rgb="FF66FF99"/>
+      <color rgb="FFFF99CC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -573,448 +656,984 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D36"/>
+  <dimension ref="B1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="3" t="s">
+    <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B4" s="9" t="s">
+        <v>1.6</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B5" s="4">
+      <c r="E4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B5" s="15">
         <v>0</v>
       </c>
-      <c r="C5" s="1">
-        <f>POWER(B5/31,1/$C$2)</f>
+      <c r="C5" s="3">
+        <f t="shared" ref="C5:C36" si="0">POWER(B5/31,1/$C$2)</f>
         <v>0</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <f>INT(C5*255)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B6" s="4">
+      <c r="E5" s="1">
+        <f>POWER(B5/31,1/$E$2)</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <f>INT(E5*255)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <f>POWER(B5/31,1/$G$2)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <f>INT(G5*255)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B6" s="15">
         <v>1</v>
       </c>
-      <c r="C6" s="1">
-        <f t="shared" ref="C6:C36" si="0">POWER(B6/31,1/$C$2)</f>
-        <v>0.20994634628998984</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.11692272846945814</v>
+      </c>
+      <c r="D6" s="4">
         <f t="shared" ref="D6:D36" si="1">INT(C6*255)</f>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B7" s="4">
+        <v>29</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" ref="E6:E36" si="2">POWER(B6/31,1/$E$2)</f>
+        <v>0.1484108750154724</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" ref="F6:F36" si="3">INT(E6*255)</f>
+        <v>37</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" ref="G6:G36" si="4">POWER(B6/31,1/$G$2)</f>
+        <v>0.17960530202677491</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" ref="H6:H36" si="5">INT(G6*255)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B7" s="15">
         <v>2</v>
       </c>
-      <c r="C7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.28770018237687967</v>
-      </c>
-      <c r="D7" s="5">
-        <f t="shared" si="1"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B8" s="4">
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.18031949758183155</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="2"/>
+        <v>0.21812458203904267</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="4"/>
+        <v>0.25400025400038101</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B8" s="15">
         <v>3</v>
       </c>
-      <c r="C8" s="1">
-        <f t="shared" si="0"/>
-        <v>0.34592473633004001</v>
-      </c>
-      <c r="D8" s="5">
-        <f t="shared" si="1"/>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B9" s="4">
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.23232702196883948</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="2"/>
+        <v>0.27323296151876447</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="3"/>
+        <v>69</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.31108550841912758</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="5"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B9" s="15">
         <v>4</v>
       </c>
-      <c r="C9" s="1">
-        <f t="shared" si="0"/>
-        <v>0.39425022822431627</v>
-      </c>
-      <c r="D9" s="5">
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.27809068120282171</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="2"/>
+        <v>0.32058522183597965</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="3"/>
+        <v>81</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="4"/>
+        <v>0.35921060405354982</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="5"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B10" s="15">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
+        <v>0.31970924438205645</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="2"/>
+        <v>0.36289617838525334</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="3"/>
+        <v>92</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="4"/>
+        <v>0.4016096644512494</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="5"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B11" s="15">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="0"/>
+        <v>0.35829724831513277</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="2"/>
+        <v>0.40157990797073956</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="3"/>
+        <v>102</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="4"/>
+        <v>0.43994134506405985</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="5"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B12" s="15">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.39453470926305756</v>
+      </c>
+      <c r="D12" s="4">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B10" s="4">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1">
-        <f t="shared" si="0"/>
-        <v>0.43633691758396853</v>
-      </c>
-      <c r="D10" s="5">
-        <f t="shared" si="1"/>
+      <c r="E12" s="1">
+        <f t="shared" si="2"/>
+        <v>0.43748648056012174</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="3"/>
         <v>111</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B11" s="4">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1">
-        <f t="shared" si="0"/>
-        <v>0.47403830306891942</v>
-      </c>
-      <c r="D11" s="5">
-        <f t="shared" si="1"/>
+      <c r="G12" s="1">
+        <f t="shared" si="4"/>
+        <v>0.47519096331149147</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="5"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B13" s="15">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.42887445899606014</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="2"/>
+        <v>0.47117515824616368</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B12" s="4">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1">
-        <f t="shared" si="0"/>
-        <v>0.50844478088209599</v>
-      </c>
-      <c r="D12" s="5">
-        <f t="shared" si="1"/>
+      <c r="G13" s="1">
+        <f t="shared" si="4"/>
+        <v>0.50800050800076202</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="5"/>
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B13" s="4">
-        <v>8</v>
-      </c>
-      <c r="C13" s="1">
-        <f t="shared" si="0"/>
-        <v>0.54026118847332516</v>
-      </c>
-      <c r="D13" s="5">
-        <f t="shared" si="1"/>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B14" s="15">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.46163689338646319</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="2"/>
+        <v>0.50303760592026325</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="3"/>
+        <v>128</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="4"/>
+        <v>0.5388159060803247</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="5"/>
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B14" s="4">
-        <v>9</v>
-      </c>
-      <c r="C14" s="1">
-        <f t="shared" si="0"/>
-        <v>0.56997383055059736</v>
-      </c>
-      <c r="D14" s="5">
-        <f t="shared" si="1"/>
-        <v>145</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B15" s="4">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B15" s="15">
         <v>10</v>
       </c>
-      <c r="C15" s="1">
-        <f t="shared" si="0"/>
-        <v>0.59793472468093478</v>
-      </c>
-      <c r="D15" s="5">
-        <f t="shared" si="1"/>
-        <v>152</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B16" s="4">
+      <c r="C15" s="3">
+        <f t="shared" si="0"/>
+        <v>0.49305905766900043</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="2"/>
+        <v>0.53336103048780548</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="3"/>
+        <v>136</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="4"/>
+        <v>0.56796183424706481</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="5"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B16" s="15">
         <v>11</v>
       </c>
-      <c r="C16" s="1">
-        <f t="shared" si="0"/>
-        <v>0.62440824981550391</v>
-      </c>
-      <c r="D16" s="5">
-        <f t="shared" si="1"/>
-        <v>159</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B17" s="4">
+      <c r="C16" s="3">
+        <f t="shared" si="0"/>
+        <v>0.52332245439499059</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="1"/>
+        <v>133</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="2"/>
+        <v>0.5623636193918492</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="3"/>
+        <v>143</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="4"/>
+        <v>0.59568339718127061</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="5"/>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B17" s="15">
         <v>12</v>
       </c>
-      <c r="C17" s="1">
-        <f t="shared" si="0"/>
-        <v>0.64959885540555018</v>
-      </c>
-      <c r="D17" s="5">
-        <f t="shared" si="1"/>
+      <c r="C17" s="3">
+        <f t="shared" si="0"/>
+        <v>0.55256989506547483</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="2"/>
+        <v>0.59021584214945666</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="4"/>
+        <v>0.62217101683825515</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="5"/>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B18" s="15">
+        <v>13</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" si="0"/>
+        <v>0.58091626519180151</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="1"/>
+        <v>148</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="2"/>
+        <v>0.61705395973420374</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="3"/>
+        <v>157</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="4"/>
+        <v>0.64757612580273327</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" si="5"/>
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B18" s="4">
-        <v>13</v>
-      </c>
-      <c r="C18" s="1">
-        <f t="shared" si="0"/>
-        <v>0.67366844990112273</v>
-      </c>
-      <c r="D18" s="5">
-        <f t="shared" si="1"/>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B19" s="15">
+        <v>14</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" si="0"/>
+        <v>0.60845569962466195</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" si="1"/>
+        <v>155</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="2"/>
+        <v>0.64298897038346914</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="3"/>
+        <v>163</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="4"/>
+        <v>0.672021505032247</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="5"/>
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B19" s="4">
-        <v>14</v>
-      </c>
-      <c r="C19" s="1">
-        <f t="shared" si="0"/>
-        <v>0.6967478061575878</v>
-      </c>
-      <c r="D19" s="5">
-        <f t="shared" si="1"/>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B20" s="15">
+        <v>15</v>
+      </c>
+      <c r="C20" s="3">
+        <f t="shared" si="0"/>
+        <v>0.63526653556150414</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" si="1"/>
+        <v>161</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="2"/>
+        <v>0.6681127480294643</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" si="3"/>
+        <v>170</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="4"/>
+        <v>0.69560834364025237</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="shared" si="5"/>
         <v>177</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B20" s="4">
-        <v>15</v>
-      </c>
-      <c r="C20" s="1">
-        <f t="shared" si="0"/>
-        <v>0.71894431998264052</v>
-      </c>
-      <c r="D20" s="5">
-        <f t="shared" si="1"/>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B21" s="15">
+        <v>16</v>
+      </c>
+      <c r="C21" s="3">
+        <f t="shared" si="0"/>
+        <v>0.66141483340469787</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" si="1"/>
+        <v>168</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="2"/>
+        <v>0.69250238197780034</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" si="3"/>
+        <v>176</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="4"/>
+        <v>0.71842120810709964</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="5"/>
         <v>183</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B21" s="4">
-        <v>16</v>
-      </c>
-      <c r="C21" s="1">
-        <f t="shared" si="0"/>
-        <v>0.74034745163048554</v>
-      </c>
-      <c r="D21" s="5">
-        <f t="shared" si="1"/>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B22" s="15">
+        <v>17</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" si="0"/>
+        <v>0.68695694293163889</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" si="1"/>
+        <v>175</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="2"/>
+        <v>0.7162233238796526</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" si="3"/>
+        <v>182</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="4"/>
+        <v>0.74053163117735454</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" si="5"/>
         <v>188</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B22" s="4">
-        <v>17</v>
-      </c>
-      <c r="C22" s="1">
-        <f t="shared" si="0"/>
-        <v>0.76103264276982585</v>
-      </c>
-      <c r="D22" s="5">
-        <f t="shared" si="1"/>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B23" s="15">
+        <v>18</v>
+      </c>
+      <c r="C23" s="3">
+        <f t="shared" si="0"/>
+        <v>0.71194141438829495</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" si="1"/>
+        <v>181</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="2"/>
+        <v>0.73933172033275085</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" si="3"/>
+        <v>188</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="4"/>
+        <v>0.76200076200114297</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" si="5"/>
         <v>194</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B23" s="4">
-        <v>18</v>
-      </c>
-      <c r="C23" s="1">
-        <f t="shared" si="0"/>
-        <v>0.78106419995971199</v>
-      </c>
-      <c r="D23" s="5">
-        <f t="shared" si="1"/>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B24" s="15">
+        <v>19</v>
+      </c>
+      <c r="C24" s="3">
+        <f t="shared" si="0"/>
+        <v>0.73641044870572769</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="1"/>
+        <v>187</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="2"/>
+        <v>0.76187617516142359</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" si="3"/>
+        <v>194</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="4"/>
+        <v>0.78288136125881269</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" si="5"/>
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B24" s="4">
-        <v>19</v>
-      </c>
-      <c r="C24" s="1">
-        <f t="shared" si="0"/>
-        <v>0.80049745917377013</v>
-      </c>
-      <c r="D24" s="5">
-        <f t="shared" si="1"/>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B25" s="15">
+        <v>20</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" si="0"/>
+        <v>0.76040101630257062</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" si="1"/>
+        <v>193</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="2"/>
+        <v>0.78389910334358504</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="3"/>
+        <v>199</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="4"/>
+        <v>0.80321932890249881</v>
+      </c>
+      <c r="H25" s="4">
+        <f t="shared" si="5"/>
         <v>204</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B25" s="4">
-        <v>20</v>
-      </c>
-      <c r="C25" s="1">
-        <f t="shared" si="0"/>
-        <v>0.81938043876487499</v>
-      </c>
-      <c r="D25" s="5">
-        <f t="shared" si="1"/>
-        <v>208</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B26" s="4">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B26" s="15">
         <v>21</v>
       </c>
-      <c r="C26" s="1">
-        <f t="shared" si="0"/>
-        <v>0.83775512112072448</v>
-      </c>
-      <c r="D26" s="5">
-        <f t="shared" si="1"/>
-        <v>213</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B27" s="4">
+      <c r="C26" s="3">
+        <f t="shared" si="0"/>
+        <v>0.78394573293225234</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" si="1"/>
+        <v>199</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="2"/>
+        <v>0.80543778678888189</v>
+      </c>
+      <c r="F26" s="4">
+        <f t="shared" si="3"/>
+        <v>205</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="4"/>
+        <v>0.82305489175310154</v>
+      </c>
+      <c r="H26" s="4">
+        <f t="shared" si="5"/>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B27" s="15">
         <v>22</v>
       </c>
-      <c r="C27" s="1">
-        <f t="shared" si="0"/>
-        <v>0.85565846000204482</v>
-      </c>
-      <c r="D27" s="5">
-        <f t="shared" si="1"/>
-        <v>218</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B28" s="4">
+      <c r="C27" s="3">
+        <f t="shared" si="0"/>
+        <v>0.80707355434700778</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" si="1"/>
+        <v>205</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="2"/>
+        <v>0.82652520862114764</v>
+      </c>
+      <c r="F27" s="4">
+        <f t="shared" si="3"/>
+        <v>210</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="4"/>
+        <v>0.84242353917423196</v>
+      </c>
+      <c r="H27" s="4">
+        <f t="shared" si="5"/>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B28" s="15">
         <v>23</v>
       </c>
-      <c r="C28" s="1">
-        <f t="shared" si="0"/>
-        <v>0.87312318198895811</v>
-      </c>
-      <c r="D28" s="5">
+      <c r="C28" s="3">
+        <f t="shared" si="0"/>
+        <v>0.82981033375947055</v>
+      </c>
+      <c r="D28" s="4">
+        <f t="shared" si="1"/>
+        <v>211</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="2"/>
+        <v>0.8471907203373531</v>
+      </c>
+      <c r="F28" s="4">
+        <f t="shared" si="3"/>
+        <v>216</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="4"/>
+        <v>0.86135676921410897</v>
+      </c>
+      <c r="H28" s="4">
+        <f t="shared" si="5"/>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B29" s="15">
+        <v>24</v>
+      </c>
+      <c r="C29" s="3">
+        <f t="shared" si="0"/>
+        <v>0.85217927396450521</v>
+      </c>
+      <c r="D29" s="4">
+        <f t="shared" si="1"/>
+        <v>217</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="2"/>
+        <v>0.86746058109454671</v>
+      </c>
+      <c r="F29" s="4">
+        <f t="shared" si="3"/>
+        <v>221</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="4"/>
+        <v>0.8798826901281197</v>
+      </c>
+      <c r="H29" s="4">
+        <f t="shared" si="5"/>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B30" s="15">
+        <v>25</v>
+      </c>
+      <c r="C30" s="3">
+        <f t="shared" si="0"/>
+        <v>0.87420129756931952</v>
+      </c>
+      <c r="D30" s="4">
         <f t="shared" si="1"/>
         <v>222</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B29" s="4">
-        <v>24</v>
-      </c>
-      <c r="C29" s="1">
-        <f t="shared" si="0"/>
-        <v>0.89017843117806095</v>
-      </c>
-      <c r="D29" s="5">
-        <f t="shared" si="1"/>
+      <c r="E30" s="1">
+        <f t="shared" si="2"/>
+        <v>0.88735839791317217</v>
+      </c>
+      <c r="F30" s="4">
+        <f t="shared" si="3"/>
         <v>226</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B30" s="4">
-        <v>25</v>
-      </c>
-      <c r="C30" s="1">
-        <f t="shared" si="0"/>
-        <v>0.90685029299677156</v>
-      </c>
-      <c r="D30" s="5">
-        <f t="shared" si="1"/>
+      <c r="G30" s="1">
+        <f t="shared" si="4"/>
+        <v>0.89802651013387447</v>
+      </c>
+      <c r="H30" s="4">
+        <f t="shared" si="5"/>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B31" s="15">
+        <v>26</v>
+      </c>
+      <c r="C31" s="3">
+        <f t="shared" si="0"/>
+        <v>0.89589535283434651</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" si="1"/>
+        <v>228</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="2"/>
+        <v>0.90690548821659767</v>
+      </c>
+      <c r="F31" s="4">
+        <f t="shared" si="3"/>
         <v>231</v>
       </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B31" s="4">
-        <v>26</v>
-      </c>
-      <c r="C31" s="1">
-        <f t="shared" si="0"/>
-        <v>0.92316222369688272</v>
-      </c>
-      <c r="D31" s="5">
-        <f t="shared" si="1"/>
-        <v>235</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B32" s="4">
+      <c r="G31" s="1">
+        <f t="shared" si="4"/>
+        <v>0.91581093977925099</v>
+      </c>
+      <c r="H31" s="4">
+        <f t="shared" si="5"/>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B32" s="15">
         <v>27</v>
       </c>
-      <c r="C32" s="1">
-        <f t="shared" si="0"/>
-        <v>0.93913540546163421</v>
-      </c>
-      <c r="D32" s="5">
+      <c r="C32" s="3">
+        <f t="shared" si="0"/>
+        <v>0.91727866835949734</v>
+      </c>
+      <c r="D32" s="4">
+        <f t="shared" si="1"/>
+        <v>233</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="2"/>
+        <v>0.92612118085398654</v>
+      </c>
+      <c r="F32" s="4">
+        <f t="shared" si="3"/>
+        <v>236</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="4"/>
+        <v>0.93325652525738279</v>
+      </c>
+      <c r="H32" s="4">
+        <f t="shared" si="5"/>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B33" s="15">
+        <v>28</v>
+      </c>
+      <c r="C33" s="3">
+        <f t="shared" si="0"/>
+        <v>0.93836696674231601</v>
+      </c>
+      <c r="D33" s="4">
         <f t="shared" si="1"/>
         <v>239</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B33" s="4">
-        <v>28</v>
-      </c>
-      <c r="C33" s="1">
-        <f t="shared" si="0"/>
-        <v>0.95478904226963623</v>
-      </c>
-      <c r="D33" s="5">
-        <f t="shared" si="1"/>
-        <v>243</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B34" s="4">
+      <c r="E33" s="1">
+        <f t="shared" si="2"/>
+        <v>0.94502306792535817</v>
+      </c>
+      <c r="F33" s="4">
+        <f t="shared" si="3"/>
+        <v>240</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" si="4"/>
+        <v>0.95038192662298293</v>
+      </c>
+      <c r="H33" s="4">
+        <f t="shared" si="5"/>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B34" s="15">
         <v>29</v>
       </c>
-      <c r="C34" s="1">
-        <f t="shared" si="0"/>
-        <v>0.97014060814855263</v>
-      </c>
-      <c r="D34" s="5">
-        <f t="shared" si="1"/>
-        <v>247</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B35" s="4">
+      <c r="C34" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95917464504102545</v>
+      </c>
+      <c r="D34" s="4">
+        <f t="shared" si="1"/>
+        <v>244</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="2"/>
+        <v>0.96362721691084119</v>
+      </c>
+      <c r="F34" s="4">
+        <f t="shared" si="3"/>
+        <v>245</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" si="4"/>
+        <v>0.96720415164935158</v>
+      </c>
+      <c r="H34" s="4">
+        <f t="shared" si="5"/>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B35" s="15">
         <v>30</v>
       </c>
-      <c r="C35" s="1">
-        <f t="shared" si="0"/>
-        <v>0.98520605684715112</v>
-      </c>
-      <c r="D35" s="5">
-        <f t="shared" si="1"/>
-        <v>251</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="6">
+      <c r="C35" s="3">
+        <f t="shared" si="0"/>
+        <v>0.97971492816235028</v>
+      </c>
+      <c r="D35" s="4">
+        <f t="shared" si="1"/>
+        <v>249</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" si="2"/>
+        <v>0.98194835050793983</v>
+      </c>
+      <c r="F35" s="4">
+        <f t="shared" si="3"/>
+        <v>250</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="4"/>
+        <v>0.98373875367592944</v>
+      </c>
+      <c r="H35" s="4">
+        <f t="shared" si="5"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="16">
         <v>31</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D36" s="8">
-        <f t="shared" si="1"/>
+      <c r="D36" s="7">
+        <f t="shared" si="1"/>
+        <v>255</v>
+      </c>
+      <c r="E36" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F36" s="7">
+        <f t="shared" si="3"/>
+        <v>255</v>
+      </c>
+      <c r="G36" s="6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H36" s="7">
+        <f t="shared" si="5"/>
         <v>255</v>
       </c>
     </row>

--- a/RTL/tangnano20k_vdp_cartridge_rev2_step1/src/th9958/doc/gamma.xlsx
+++ b/RTL/tangnano20k_vdp_cartridge_rev2_step1/src/th9958/doc/gamma.xlsx
@@ -659,7 +659,7 @@
   <dimension ref="B1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -670,19 +670,19 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="2">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="2">
-        <v>2</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
@@ -744,27 +744,27 @@
       </c>
       <c r="C6" s="3">
         <f t="shared" si="0"/>
-        <v>0.11692272846945814</v>
+        <v>5.7174001466536485E-2</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" ref="D6:D36" si="1">INT(C6*255)</f>
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" ref="E6:E36" si="2">POWER(B6/31,1/$E$2)</f>
-        <v>0.1484108750154724</v>
+        <v>5.7174001466536485E-2</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" ref="F6:F36" si="3">INT(E6*255)</f>
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" ref="G6:G36" si="4">POWER(B6/31,1/$G$2)</f>
-        <v>0.17960530202677491</v>
+        <v>5.7174001466536485E-2</v>
       </c>
       <c r="H6" s="4">
         <f t="shared" ref="H6:H36" si="5">INT(G6*255)</f>
-        <v>45</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.15">
@@ -773,27 +773,27 @@
       </c>
       <c r="C7" s="3">
         <f t="shared" si="0"/>
-        <v>0.18031949758183155</v>
+        <v>0.10187248923498249</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
-        <v>0.21812458203904267</v>
+        <v>0.10187248923498249</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="3"/>
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="4"/>
-        <v>0.25400025400038101</v>
+        <v>0.10187248923498249</v>
       </c>
       <c r="H7" s="4">
         <f t="shared" si="5"/>
-        <v>64</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.15">
@@ -802,27 +802,27 @@
       </c>
       <c r="C8" s="3">
         <f t="shared" si="0"/>
-        <v>0.23232702196883948</v>
+        <v>0.14282348766132535</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="1"/>
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
-        <v>0.27323296151876447</v>
+        <v>0.14282348766132535</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="3"/>
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="4"/>
-        <v>0.31108550841912758</v>
+        <v>0.14282348766132535</v>
       </c>
       <c r="H8" s="4">
         <f t="shared" si="5"/>
-        <v>79</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.15">
@@ -831,27 +831,27 @@
       </c>
       <c r="C9" s="3">
         <f t="shared" si="0"/>
-        <v>0.27809068120282171</v>
+        <v>0.18151614014642287</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
-        <v>0.32058522183597965</v>
+        <v>0.18151614014642287</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" si="3"/>
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="4"/>
-        <v>0.35921060405354982</v>
+        <v>0.18151614014642287</v>
       </c>
       <c r="H9" s="4">
         <f t="shared" si="5"/>
-        <v>91</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.15">
@@ -860,27 +860,27 @@
       </c>
       <c r="C10" s="3">
         <f t="shared" si="0"/>
-        <v>0.31970924438205645</v>
+        <v>0.21861179594448354</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
-        <v>0.36289617838525334</v>
+        <v>0.21861179594448354</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" si="3"/>
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="4"/>
-        <v>0.4016096644512494</v>
+        <v>0.21861179594448354</v>
       </c>
       <c r="H10" s="4">
         <f t="shared" si="5"/>
-        <v>102</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.15">
@@ -889,27 +889,27 @@
       </c>
       <c r="C11" s="3">
         <f t="shared" si="0"/>
-        <v>0.35829724831513277</v>
+        <v>0.25448252415561468</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="1"/>
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="2"/>
-        <v>0.40157990797073956</v>
+        <v>0.25448252415561468</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" si="3"/>
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="4"/>
-        <v>0.43994134506405985</v>
+        <v>0.25448252415561468</v>
       </c>
       <c r="H11" s="4">
         <f t="shared" si="5"/>
-        <v>112</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.15">
@@ -918,27 +918,27 @@
       </c>
       <c r="C12" s="3">
         <f t="shared" si="0"/>
-        <v>0.39453470926305756</v>
+        <v>0.28936563634789542</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="2"/>
-        <v>0.43748648056012174</v>
+        <v>0.28936563634789542</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="3"/>
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="4"/>
-        <v>0.47519096331149147</v>
+        <v>0.28936563634789542</v>
       </c>
       <c r="H12" s="4">
         <f t="shared" si="5"/>
-        <v>121</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.15">
@@ -947,27 +947,27 @@
       </c>
       <c r="C13" s="3">
         <f t="shared" si="0"/>
-        <v>0.42887445899606014</v>
+        <v>0.32342499315646056</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" si="1"/>
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="2"/>
-        <v>0.47117515824616368</v>
+        <v>0.32342499315646056</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="3"/>
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="4"/>
-        <v>0.50800050800076202</v>
+        <v>0.32342499315646056</v>
       </c>
       <c r="H13" s="4">
         <f t="shared" si="5"/>
-        <v>129</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.15">
@@ -976,27 +976,27 @@
       </c>
       <c r="C14" s="3">
         <f t="shared" si="0"/>
-        <v>0.46163689338646319</v>
+        <v>0.35678014664906527</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" si="1"/>
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="2"/>
-        <v>0.50303760592026325</v>
+        <v>0.35678014664906527</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" si="3"/>
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="4"/>
-        <v>0.5388159060803247</v>
+        <v>0.35678014664906527</v>
       </c>
       <c r="H14" s="4">
         <f t="shared" si="5"/>
-        <v>137</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.15">
@@ -1005,27 +1005,27 @@
       </c>
       <c r="C15" s="3">
         <f t="shared" si="0"/>
-        <v>0.49305905766900043</v>
+        <v>0.38952193755459569</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" si="1"/>
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="2"/>
-        <v>0.53336103048780548</v>
+        <v>0.38952193755459569</v>
       </c>
       <c r="F15" s="4">
         <f t="shared" si="3"/>
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" si="4"/>
-        <v>0.56796183424706481</v>
+        <v>0.38952193755459569</v>
       </c>
       <c r="H15" s="4">
         <f t="shared" si="5"/>
-        <v>144</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.15">
@@ -1034,27 +1034,27 @@
       </c>
       <c r="C16" s="3">
         <f t="shared" si="0"/>
-        <v>0.52332245439499059</v>
+        <v>0.42172158111604136</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" si="1"/>
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="2"/>
-        <v>0.5623636193918492</v>
+        <v>0.42172158111604136</v>
       </c>
       <c r="F16" s="4">
         <f t="shared" si="3"/>
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" si="4"/>
-        <v>0.59568339718127061</v>
+        <v>0.42172158111604136</v>
       </c>
       <c r="H16" s="4">
         <f t="shared" si="5"/>
-        <v>151</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.15">
@@ -1063,27 +1063,27 @@
       </c>
       <c r="C17" s="3">
         <f t="shared" si="0"/>
-        <v>0.55256989506547483</v>
+        <v>0.45343630911871013</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" si="1"/>
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" si="2"/>
-        <v>0.59021584214945666</v>
+        <v>0.45343630911871013</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" si="3"/>
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" si="4"/>
-        <v>0.62217101683825515</v>
+        <v>0.45343630911871013</v>
       </c>
       <c r="H17" s="4">
         <f t="shared" si="5"/>
-        <v>158</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.15">
@@ -1092,27 +1092,27 @@
       </c>
       <c r="C18" s="3">
         <f t="shared" si="0"/>
-        <v>0.58091626519180151</v>
+        <v>0.48471305328141256</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" si="1"/>
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="2"/>
-        <v>0.61705395973420374</v>
+        <v>0.48471305328141256</v>
       </c>
       <c r="F18" s="4">
         <f t="shared" si="3"/>
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" si="4"/>
-        <v>0.64757612580273327</v>
+        <v>0.48471305328141256</v>
       </c>
       <c r="H18" s="4">
         <f t="shared" si="5"/>
-        <v>165</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.15">
@@ -1121,27 +1121,27 @@
       </c>
       <c r="C19" s="3">
         <f t="shared" si="0"/>
-        <v>0.60845569962466195</v>
+        <v>0.51559094899240721</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" si="1"/>
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="2"/>
-        <v>0.64298897038346914</v>
+        <v>0.51559094899240721</v>
       </c>
       <c r="F19" s="4">
         <f t="shared" si="3"/>
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" si="4"/>
-        <v>0.672021505032247</v>
+        <v>0.51559094899240721</v>
       </c>
       <c r="H19" s="4">
         <f t="shared" si="5"/>
-        <v>171</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.15">
@@ -1150,27 +1150,27 @@
       </c>
       <c r="C20" s="3">
         <f t="shared" si="0"/>
-        <v>0.63526653556150414</v>
+        <v>0.5461030947601534</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" si="1"/>
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="2"/>
-        <v>0.6681127480294643</v>
+        <v>0.5461030947601534</v>
       </c>
       <c r="F20" s="4">
         <f t="shared" si="3"/>
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" si="4"/>
-        <v>0.69560834364025237</v>
+        <v>0.5461030947601534</v>
       </c>
       <c r="H20" s="4">
         <f t="shared" si="5"/>
-        <v>177</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.15">
@@ -1179,27 +1179,27 @@
       </c>
       <c r="C21" s="3">
         <f t="shared" si="0"/>
-        <v>0.66141483340469787</v>
+        <v>0.57627782363527758</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" si="1"/>
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="2"/>
-        <v>0.69250238197780034</v>
+        <v>0.57627782363527758</v>
       </c>
       <c r="F21" s="4">
         <f t="shared" si="3"/>
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" si="4"/>
-        <v>0.71842120810709964</v>
+        <v>0.57627782363527758</v>
       </c>
       <c r="H21" s="4">
         <f t="shared" si="5"/>
-        <v>183</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.15">
@@ -1208,27 +1208,27 @@
       </c>
       <c r="C22" s="3">
         <f t="shared" si="0"/>
-        <v>0.68695694293163889</v>
+        <v>0.60613964407558429</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" si="1"/>
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="2"/>
-        <v>0.7162233238796526</v>
+        <v>0.60613964407558429</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" si="3"/>
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="4"/>
-        <v>0.74053163117735454</v>
+        <v>0.60613964407558429</v>
       </c>
       <c r="H22" s="4">
         <f t="shared" si="5"/>
-        <v>188</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.15">
@@ -1237,27 +1237,27 @@
       </c>
       <c r="C23" s="3">
         <f t="shared" si="0"/>
-        <v>0.71194141438829495</v>
+        <v>0.63570995061514901</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" si="1"/>
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="2"/>
-        <v>0.73933172033275085</v>
+        <v>0.63570995061514901</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" si="3"/>
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" si="4"/>
-        <v>0.76200076200114297</v>
+        <v>0.63570995061514901</v>
       </c>
       <c r="H23" s="4">
         <f t="shared" si="5"/>
-        <v>194</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.15">
@@ -1266,27 +1266,27 @@
       </c>
       <c r="C24" s="3">
         <f t="shared" si="0"/>
-        <v>0.73641044870572769</v>
+        <v>0.66500757033261848</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" si="1"/>
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="2"/>
-        <v>0.76187617516142359</v>
+        <v>0.66500757033261848</v>
       </c>
       <c r="F24" s="4">
         <f t="shared" si="3"/>
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="4"/>
-        <v>0.78288136125881269</v>
+        <v>0.66500757033261848</v>
       </c>
       <c r="H24" s="4">
         <f t="shared" si="5"/>
-        <v>199</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.15">
@@ -1295,27 +1295,27 @@
       </c>
       <c r="C25" s="3">
         <f t="shared" si="0"/>
-        <v>0.76040101630257062</v>
+        <v>0.69404918970986107</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" si="1"/>
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="2"/>
-        <v>0.78389910334358504</v>
+        <v>0.69404918970986107</v>
       </c>
       <c r="F25" s="4">
         <f t="shared" si="3"/>
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="4"/>
-        <v>0.80321932890249881</v>
+        <v>0.69404918970986107</v>
       </c>
       <c r="H25" s="4">
         <f t="shared" si="5"/>
-        <v>204</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.15">
@@ -1324,27 +1324,27 @@
       </c>
       <c r="C26" s="3">
         <f t="shared" si="0"/>
-        <v>0.78394573293225234</v>
+        <v>0.7228496927355047</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" si="1"/>
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="2"/>
-        <v>0.80543778678888189</v>
+        <v>0.7228496927355047</v>
       </c>
       <c r="F26" s="4">
         <f t="shared" si="3"/>
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" si="4"/>
-        <v>0.82305489175310154</v>
+        <v>0.7228496927355047</v>
       </c>
       <c r="H26" s="4">
         <f t="shared" si="5"/>
-        <v>209</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.15">
@@ -1353,27 +1353,27 @@
       </c>
       <c r="C27" s="3">
         <f t="shared" si="0"/>
-        <v>0.80707355434700778</v>
+        <v>0.75142243205679671</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" si="1"/>
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="2"/>
-        <v>0.82652520862114764</v>
+        <v>0.75142243205679671</v>
       </c>
       <c r="F27" s="4">
         <f t="shared" si="3"/>
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="G27" s="1">
         <f t="shared" si="4"/>
-        <v>0.84242353917423196</v>
+        <v>0.75142243205679671</v>
       </c>
       <c r="H27" s="4">
         <f t="shared" si="5"/>
-        <v>214</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.15">
@@ -1382,27 +1382,27 @@
       </c>
       <c r="C28" s="3">
         <f t="shared" si="0"/>
-        <v>0.82981033375947055</v>
+        <v>0.7797794488785913</v>
       </c>
       <c r="D28" s="4">
         <f t="shared" si="1"/>
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="2"/>
-        <v>0.8471907203373531</v>
+        <v>0.7797794488785913</v>
       </c>
       <c r="F28" s="4">
         <f t="shared" si="3"/>
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="G28" s="1">
         <f t="shared" si="4"/>
-        <v>0.86135676921410897</v>
+        <v>0.7797794488785913</v>
       </c>
       <c r="H28" s="4">
         <f t="shared" si="5"/>
-        <v>219</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.15">
@@ -1411,27 +1411,27 @@
       </c>
       <c r="C29" s="3">
         <f t="shared" si="0"/>
-        <v>0.85217927396450521</v>
+        <v>0.80793165310429105</v>
       </c>
       <c r="D29" s="4">
         <f t="shared" si="1"/>
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="2"/>
-        <v>0.86746058109454671</v>
+        <v>0.80793165310429105</v>
       </c>
       <c r="F29" s="4">
         <f t="shared" si="3"/>
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="G29" s="1">
         <f t="shared" si="4"/>
-        <v>0.8798826901281197</v>
+        <v>0.80793165310429105</v>
       </c>
       <c r="H29" s="4">
         <f t="shared" si="5"/>
-        <v>224</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.15">
@@ -1440,27 +1440,27 @@
       </c>
       <c r="C30" s="3">
         <f t="shared" si="0"/>
-        <v>0.87420129756931952</v>
+        <v>0.83588897226380576</v>
       </c>
       <c r="D30" s="4">
         <f t="shared" si="1"/>
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" si="2"/>
-        <v>0.88735839791317217</v>
+        <v>0.83588897226380576</v>
       </c>
       <c r="F30" s="4">
         <f t="shared" si="3"/>
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="G30" s="1">
         <f t="shared" si="4"/>
-        <v>0.89802651013387447</v>
+        <v>0.83588897226380576</v>
       </c>
       <c r="H30" s="4">
         <f t="shared" si="5"/>
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.15">
@@ -1469,27 +1469,27 @@
       </c>
       <c r="C31" s="3">
         <f t="shared" si="0"/>
-        <v>0.89589535283434651</v>
+        <v>0.86366047566860082</v>
       </c>
       <c r="D31" s="4">
         <f t="shared" si="1"/>
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" si="2"/>
-        <v>0.90690548821659767</v>
+        <v>0.86366047566860082</v>
       </c>
       <c r="F31" s="4">
         <f t="shared" si="3"/>
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" si="4"/>
-        <v>0.91581093977925099</v>
+        <v>0.86366047566860082</v>
       </c>
       <c r="H31" s="4">
         <f t="shared" si="5"/>
-        <v>233</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.15">
@@ -1498,27 +1498,27 @@
       </c>
       <c r="C32" s="3">
         <f t="shared" si="0"/>
-        <v>0.91727866835949734</v>
+        <v>0.89125447870852847</v>
       </c>
       <c r="D32" s="4">
         <f t="shared" si="1"/>
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E32" s="1">
         <f t="shared" si="2"/>
-        <v>0.92612118085398654</v>
+        <v>0.89125447870852847</v>
       </c>
       <c r="F32" s="4">
         <f t="shared" si="3"/>
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G32" s="1">
         <f t="shared" si="4"/>
-        <v>0.93325652525738279</v>
+        <v>0.89125447870852847</v>
       </c>
       <c r="H32" s="4">
         <f t="shared" si="5"/>
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.15">
@@ -1527,27 +1527,27 @@
       </c>
       <c r="C33" s="3">
         <f t="shared" si="0"/>
-        <v>0.93836696674231601</v>
+        <v>0.91867863108419323</v>
       </c>
       <c r="D33" s="4">
         <f t="shared" si="1"/>
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E33" s="1">
         <f t="shared" si="2"/>
-        <v>0.94502306792535817</v>
+        <v>0.91867863108419323</v>
       </c>
       <c r="F33" s="4">
         <f t="shared" si="3"/>
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G33" s="1">
         <f t="shared" si="4"/>
-        <v>0.95038192662298293</v>
+        <v>0.91867863108419323</v>
       </c>
       <c r="H33" s="4">
         <f t="shared" si="5"/>
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.15">
@@ -1556,27 +1556,27 @@
       </c>
       <c r="C34" s="3">
         <f t="shared" si="0"/>
-        <v>0.95917464504102545</v>
+        <v>0.94593999193424527</v>
       </c>
       <c r="D34" s="4">
         <f t="shared" si="1"/>
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E34" s="1">
         <f t="shared" si="2"/>
-        <v>0.96362721691084119</v>
+        <v>0.94593999193424527</v>
       </c>
       <c r="F34" s="4">
         <f t="shared" si="3"/>
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G34" s="1">
         <f t="shared" si="4"/>
-        <v>0.96720415164935158</v>
+        <v>0.94593999193424527</v>
       </c>
       <c r="H34" s="4">
         <f t="shared" si="5"/>
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.15">
@@ -1585,27 +1585,27 @@
       </c>
       <c r="C35" s="3">
         <f t="shared" si="0"/>
-        <v>0.97971492816235028</v>
+        <v>0.97304509418858587</v>
       </c>
       <c r="D35" s="4">
         <f t="shared" si="1"/>
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E35" s="1">
         <f t="shared" si="2"/>
-        <v>0.98194835050793983</v>
+        <v>0.97304509418858587</v>
       </c>
       <c r="F35" s="4">
         <f t="shared" si="3"/>
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G35" s="1">
         <f t="shared" si="4"/>
-        <v>0.98373875367592944</v>
+        <v>0.97304509418858587</v>
       </c>
       <c r="H35" s="4">
         <f t="shared" si="5"/>
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
